--- a/medicine/Enfance/Louis_Muratet/Louis_Muratet.xlsx
+++ b/medicine/Enfance/Louis_Muratet/Louis_Muratet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Muratet, né en 1983 à Paris, est un écrivain français auteur de livres pour enfants. Il est le fils de Marie Desplechin et de François Muratet.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Muratet a fait des études d'informatique et de cinéma. Il joue du piano et la musique actuelle, tout comme le cinéma d'animation japonais ou les séries, inspire ses histoires qu'il écrit depuis qu'il a 20 ans[1]. Ses histoires sont surtout du genre fantastique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Muratet a fait des études d'informatique et de cinéma. Il joue du piano et la musique actuelle, tout comme le cinéma d'animation japonais ou les séries, inspire ses histoires qu'il écrit depuis qu'il a 20 ans. Ses histoires sont surtout du genre fantastique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Neuvième métro, illustrations de Kimiko, l'Ecole des loisirs, 2007
 Mon cher Grand-père, illustrations de Beatrice Alemagna, l'Ecole des loisirs, 2008
